--- a/data-scrapping/twitter/geo location 2019 tweets wo emoji translated.xlsx
+++ b/data-scrapping/twitter/geo location 2019 tweets wo emoji translated.xlsx
@@ -3558,7 +3558,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Come on Crete first. This is transportation for the transfer if you want to go to Universal Studios Photo and the typical Earth Bola, then to the Merlion Poto and the Lion Statue Spray the water. : beaming face with smiling eyes: 
+          <t>Come on Crete first. This is transportation for the transfer if you want to go to Universal Studios Photo and the typical Earth ball, then to the Merlion Poto and the Lion Statue Spray the water. : beaming face with smiling eyes: 
  Location: Sentosa ... https://t.co/0l5yzhuzh</t>
         </is>
       </c>
@@ -12151,7 +12151,7 @@
           <t>Backpackeran is not just saving budget but there is its own sensation .. 
  *Straying looking for a way 
  * Take the MRT/bus like a local person 
- *Walking hundreds of meters can even kilo-kilo ... https://t.co/pr916px55e</t>
+ *Walking hundreds of meters can even kile-kilo ... https://t.co/pr916px55e</t>
         </is>
       </c>
     </row>
@@ -13861,7 +13861,7 @@
         <is>
           <t>Trip to Singapore Education Forum ... 
  Learn a lot from this country .. 
- The environment is clean, organized, regular, and the high level of discipline, ... https://t.co/0yoxyxzhy3</t>
+ The environment is clean, organized, regular, and cultural discipline is high, ... https://t.co/0yoxyxzhy3</t>
         </is>
       </c>
     </row>
